--- a/pandas/3_different_ways_of_creating_dataframe/weather_data.xlsx
+++ b/pandas/3_different_ways_of_creating_dataframe/weather_data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,24 +33,24 @@
     <t>event</t>
   </si>
   <si>
-    <t>Rain</t>
-  </si>
-  <si>
     <t>Sunny</t>
   </si>
   <si>
     <t>Snow</t>
+  </si>
+  <si>
+    <t>ฝนตก</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -361,17 +361,17 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +385,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -396,10 +396,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42737</v>
       </c>
@@ -410,10 +410,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42738</v>
       </c>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
